--- a/remote-results/results/wang/wang-results.xlsx
+++ b/remote-results/results/wang/wang-results.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48812043-92B8-448F-A9A6-F00C42ADD1D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54E40E-F85C-4E8D-A870-73656FDAC6F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
     <sheet name="split-0-counts" sheetId="1" r:id="rId2"/>
-    <sheet name="split-0-history" sheetId="2" r:id="rId3"/>
-    <sheet name="split-1-counts" sheetId="3" r:id="rId4"/>
-    <sheet name="split-1-history" sheetId="4" r:id="rId5"/>
-    <sheet name="split-2-counts" sheetId="5" r:id="rId6"/>
-    <sheet name="split-2-history" sheetId="6" r:id="rId7"/>
+    <sheet name="split-0-korrelation" sheetId="8" r:id="rId3"/>
+    <sheet name="split-0-history" sheetId="2" r:id="rId4"/>
+    <sheet name="split-1-counts" sheetId="3" r:id="rId5"/>
+    <sheet name="split-1-history" sheetId="4" r:id="rId6"/>
+    <sheet name="split-2-counts" sheetId="5" r:id="rId7"/>
+    <sheet name="split-2-history" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'split-0-counts'!$A$1:$I$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'split-0-history'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'split-1-counts'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'split-1-history'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'split-2-counts'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'split-2-history'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'split-0-history'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'split-1-counts'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'split-1-history'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'split-2-counts'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'split-2-history'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="126">
   <si>
     <t>pred count</t>
   </si>
@@ -412,6 +414,12 @@
   <si>
     <t>Windowsindex</t>
   </si>
+  <si>
+    <t>Absolute Korrelation</t>
+  </si>
+  <si>
+    <t>Relative Korrelation</t>
+  </si>
 </sst>
 </file>
 
@@ -590,106 +598,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,106 +709,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>153.54820251464801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.262924194335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315.26947021484301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326.94281005859301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335.71325683593699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.70463562011699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>371.91876220703102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>431.91275024414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>485.852447509765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>412.85357666015602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>405.803466796875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>428.476318359375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>399.63916015625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>507.33636474609301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>388.17132568359301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>483.02279663085898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>467.32092285156199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520.96594238281205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>445.44915771484301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>609.385986328125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>546.01837158203102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>449.33059692382801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>543.86407470703102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>511.82574462890602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>607.308837890625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>545.16369628906205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>510.29144287109301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>492.33172607421801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>518.19396972656205</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>658.98284912109295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>797.75988769531205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>694.69830322265602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>677.82366943359295</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>878.97961425781205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>677.82366943359295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>694.69830322265602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>797.75988769531205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>658.98284912109295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>518.19396972656205</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>492.33172607421801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>510.29144287109301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>545.16369628906205</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>607.308837890625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>511.82574462890602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>543.86407470703102</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>449.33059692382801</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>546.01837158203102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>609.385986328125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>445.44915771484301</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>520.96594238281205</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>467.32092285156199</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>483.02279663085898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>388.17132568359301</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>507.33636474609301</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>399.63916015625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>428.476318359375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>405.803466796875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>412.85357666015602</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>485.852447509765</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>431.91275024414</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>371.91876220703102</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>236.70463562011699</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>335.71325683593699</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>326.94281005859301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>315.26947021484301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>251.262924194335</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>153.54820251464801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,106 +859,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,106 +970,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,106 +1544,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>153.54820251464801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.262924194335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315.26947021484301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326.94281005859301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>335.71325683593699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.70463562011699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>371.91876220703102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>431.91275024414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>485.852447509765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>412.85357666015602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>405.803466796875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>428.476318359375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>399.63916015625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>507.33636474609301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>388.17132568359301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>483.02279663085898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>467.32092285156199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>520.96594238281205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>445.44915771484301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>609.385986328125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>546.01837158203102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>449.33059692382801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>543.86407470703102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>511.82574462890602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>607.308837890625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>545.16369628906205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>510.29144287109301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>492.33172607421801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>518.19396972656205</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>658.98284912109295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>797.75988769531205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>694.69830322265602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>677.82366943359295</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>878.97961425781205</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>677.82366943359295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>694.69830322265602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>797.75988769531205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>658.98284912109295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>518.19396972656205</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>492.33172607421801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>510.29144287109301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>545.16369628906205</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>607.308837890625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>511.82574462890602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>543.86407470703102</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>449.33059692382801</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>546.01837158203102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>609.385986328125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>445.44915771484301</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>520.96594238281205</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>467.32092285156199</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>483.02279663085898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>388.17132568359301</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>507.33636474609301</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>399.63916015625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>428.476318359375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>405.803466796875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>412.85357666015602</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>485.852447509765</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>431.91275024414</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>371.91876220703102</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>236.70463562011699</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>335.71325683593699</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>326.94281005859301</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>315.26947021484301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>251.262924194335</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>153.54820251464801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,106 +1680,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,6 +3170,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Zusammenhang</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> zwischen Beeren pro Bild und der Abweichung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3225,106 +3293,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,106 +3404,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>40.548202514648011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.262924194335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.26947021484301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.942810058593011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.713256835936988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.295364379883011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.918762207031023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.91275024414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.852447509765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.853576660156023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.803466796875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.476318359375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.36083984375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.336364746093011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.828674316406989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.022796630858977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6790771484380116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.965942382812045</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.550842285156989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103.385986328125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.018371582031023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.669403076171989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1359252929689774</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.174255371093977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.308837890625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.836303710937955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97.708557128906989</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.66827392578199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110.80603027343795</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.017150878907046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.759887695312045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.301696777343977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.176330566407046</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>36.020385742187955</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.176330566407046</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.301696777343977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.759887695312045</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61.017150878907046</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110.80603027343795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116.66827392578199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.708557128906989</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.836303710937955</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.308837890625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69.174255371093977</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1359252929689774</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>76.669403076171989</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.018371582031023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103.385986328125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>48.550842285156989</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.965942382812045</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.6790771484380116</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.022796630858977</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.828674316406989</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>97.336364746093011</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.36083984375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.476318359375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.803466796875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45.853576660156023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>128.852447509765</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>81.91275024414</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31.918762207031023</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34.295364379883011</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>91.713256835936988</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>82.942810058593011</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>114.26947021484301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63.262924194335</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40.548202514648011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,106 +3586,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,106 +3697,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>0.35883365057210631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33650491592731385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56850482693951743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33992954942046316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37587400342597127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12655116007336906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3878712373620651E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23403642926897142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36093122551754903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12494162577699189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.45086669921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5360390047721676E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0492254518995098E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23740576767339758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7836588146618906E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15279903730515268</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.823335535386137E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1030432551552029E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8281057257402812E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20432013108325098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2019793095479048E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14575932143758932</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.084266592603628E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11906068050102234</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8134765624999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4424963855582268E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16070486369886017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19157352040358291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17616221029163426</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4746042887370893E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.8842820516958738E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7053081999100105E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8638737455328515E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>3.9366541794740931E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8638737455328515E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7053081999100105E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8842820516958738E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4746042887370893E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17616221029163426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19157352040358291</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16070486369886017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4424963855582268E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8134765624999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11906068050102234</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.084266592603628E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14575932143758932</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2019793095479048E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20432013108325098</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.8281057257402812E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.1030432551552029E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.823335535386137E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15279903730515268</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.7836588146618906E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.23740576767339758</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0492254518995098E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5360390047721676E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.45086669921875E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.12494162577699189</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36093122551754903</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.23403642926897142</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.3878712373620651E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.12655116007336906</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.37587400342597127</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.33992954942046316</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.56850482693951743</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33650491592731385</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.35883365057210631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4263,106 +4331,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4374,106 +4442,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>40.548202514648011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.262924194335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.26947021484301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.942810058593011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.713256835936988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.295364379883011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.918762207031023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.91275024414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.852447509765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.853576660156023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.803466796875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.476318359375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.36083984375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.336364746093011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.828674316406989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.022796630858977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6790771484380116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.965942382812045</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.550842285156989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103.385986328125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.018371582031023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.669403076171989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1359252929689774</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.174255371093977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.308837890625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.836303710937955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97.708557128906989</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.66827392578199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110.80603027343795</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.017150878907046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.759887695312045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.301696777343977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.176330566407046</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>36.020385742187955</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.176330566407046</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.301696777343977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.759887695312045</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61.017150878907046</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110.80603027343795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116.66827392578199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.708557128906989</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43.836303710937955</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.308837890625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69.174255371093977</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1359252929689774</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>76.669403076171989</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.018371582031023</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103.385986328125</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>48.550842285156989</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.965942382812045</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.6790771484380116</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.022796630858977</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.828674316406989</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>97.336364746093011</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.36083984375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.476318359375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.803466796875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45.853576660156023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>128.852447509765</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>81.91275024414</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>31.918762207031023</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34.295364379883011</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>91.713256835936988</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>82.942810058593011</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>114.26947021484301</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63.262924194335</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40.548202514648011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4556,106 +4624,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4667,106 +4735,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>0.35883365057210631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33650491592731385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56850482693951743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33992954942046316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37587400342597127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12655116007336906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3878712373620651E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23403642926897142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36093122551754903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12494162577699189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.45086669921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5360390047721676E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0492254518995098E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23740576767339758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7836588146618906E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15279903730515268</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.823335535386137E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1030432551552029E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8281057257402812E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20432013108325098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2019793095479048E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14575932143758932</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.084266592603628E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11906068050102234</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8134765624999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4424963855582268E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16070486369886017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19157352040358291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17616221029163426</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4746042887370893E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.8842820516958738E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7053081999100105E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8638737455328515E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>3.9366541794740931E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8638737455328515E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7053081999100105E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8842820516958738E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4746042887370893E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17616221029163426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19157352040358291</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16070486369886017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4424963855582268E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8134765624999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11906068050102234</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.084266592603628E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14575932143758932</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2019793095479048E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20432013108325098</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.8281057257402812E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.1030432551552029E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.823335535386137E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15279903730515268</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.7836588146618906E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.23740576767339758</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0492254518995098E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5360390047721676E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.45086669921875E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.12494162577699189</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36093122551754903</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.23403642926897142</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.3878712373620651E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.12655116007336906</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.37587400342597127</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.33992954942046316</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.56850482693951743</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33650491592731385</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.35883365057210631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7958,15 +8026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>595745</xdr:colOff>
+      <xdr:colOff>595744</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>13854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>688363</xdr:colOff>
+      <xdr:colOff>695697</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>11672</xdr:rowOff>
+      <xdr:rowOff>27972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8302,8 +8370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA873F37-3086-4353-BE9B-F74749E64FBF}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8334,7 +8402,7 @@
       </c>
       <c r="B2">
         <f>AVERAGEIF('split-0-counts'!E:E,"False",'split-0-counts'!F:F)</f>
-        <v>57.811214222627527</v>
+        <v>57.811214222627513</v>
       </c>
       <c r="C2">
         <f>SQRT(AVERAGEIF('split-0-counts'!E:E,"False",'split-0-counts'!G:G))</f>
@@ -8408,7 +8476,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <f>_xlfn.STDEV.S(B2:B4)</f>
-        <v>8.1617911692030596</v>
+        <v>8.1617911692030027</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S(C2:C4)</f>
@@ -8430,11 +8498,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8482,15 +8553,15 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">ABS(C2-D2)</f>
+        <f t="shared" ref="F2:F6" si="0">ABS(C2-D2)</f>
         <v>5.1228332519540061</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G33" si="1">F2*F2</f>
+        <f t="shared" ref="G2:G6" si="1">F2*F2</f>
         <v>26.243420527325657</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="2">F2/D2</f>
+        <f t="shared" ref="H2:H6" si="2">F2/D2</f>
         <v>3.013431324678827E-2</v>
       </c>
       <c r="I2" t="s">
@@ -8627,34 +8698,34 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>878.97961425781205</v>
+        <v>153.54820251464801</v>
       </c>
       <c r="D7">
-        <v>915</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>36.020385742187955</v>
+        <f t="shared" ref="F7:F38" si="3">ABS(C7-D7)</f>
+        <v>40.548202514648011</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>1297.4681890160173</v>
+        <f t="shared" ref="G7:G38" si="4">F7*F7</f>
+        <v>1644.1567271689073</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>3.9366541794740931E-2</v>
+        <f t="shared" ref="H7:H38" si="5">F7/D7</f>
+        <v>0.35883365057210631</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -8674,15 +8745,15 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.465087890625</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>131.44824033975601</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4762608835043196E-2</v>
       </c>
       <c r="I8" t="s">
@@ -8706,15 +8777,15 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2536315917969887</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39.107908085921338</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.0108140166549802E-2</v>
       </c>
       <c r="I9" t="s">
@@ -8723,34 +8794,34 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>677.82366943359295</v>
+        <v>251.262924194335</v>
       </c>
       <c r="D10">
-        <v>752</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>74.176330566407046</v>
+        <f t="shared" si="3"/>
+        <v>63.262924194335</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>5502.1280162968924</v>
+        <f t="shared" si="4"/>
+        <v>4002.1975776181766</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>9.8638737455328515E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.33650491592731385</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -8770,15 +8841,15 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.3605346679689774</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>69.898539934311145</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.5334953539299931E-2</v>
       </c>
       <c r="I11" t="s">
@@ -8802,15 +8873,15 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0980224609380116</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50.381922855980505</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9500061705873657E-2</v>
       </c>
       <c r="I12" t="s">
@@ -8834,15 +8905,15 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.938995361328978</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>321.80755457378257</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.9418720003661099E-2</v>
       </c>
       <c r="I13" t="s">
@@ -8866,15 +8937,15 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.64630126953198896</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.41770533099866064</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.038805266662426E-3</v>
       </c>
       <c r="I14" t="s">
@@ -8898,15 +8969,15 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24.56005859375</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>603.19647812843323</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.10451088763297872</v>
       </c>
       <c r="I15" t="s">
@@ -8915,34 +8986,34 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C16">
-        <v>694.69830322265602</v>
+        <v>315.26947021484301</v>
       </c>
       <c r="D16">
-        <v>729</v>
+        <v>201</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>34.301696777343977</v>
+        <f t="shared" si="3"/>
+        <v>114.26947021484301</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1176.6064018048503</v>
+        <f t="shared" si="4"/>
+        <v>13057.511823180894</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>4.7053081999100105E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.56850482693951743</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -8962,15 +9033,15 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.937683105468011</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.5053482390882</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.6338934047585109E-2</v>
       </c>
       <c r="I17" t="s">
@@ -8979,66 +9050,66 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>797.75988769531205</v>
+        <v>326.94281005859301</v>
       </c>
       <c r="D18">
-        <v>726</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>71.759887695312045</v>
+        <f t="shared" si="3"/>
+        <v>82.942810058593011</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>5149.4814820437969</v>
+        <f t="shared" si="4"/>
+        <v>6879.5097404158378</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>9.8842820516958738E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.33992954942046316</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C19">
-        <v>658.98284912109295</v>
+        <v>335.71325683593699</v>
       </c>
       <c r="D19">
-        <v>720</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>61.017150878907046</v>
+        <f t="shared" si="3"/>
+        <v>91.713256835936988</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>3723.0927013793071</v>
+        <f t="shared" si="4"/>
+        <v>8411.321479454542</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
-        <v>8.4746042887370893E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.37587400342597127</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -9058,15 +9129,15 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4181518554689774</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>41.192673239859879</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4403619222315504E-2</v>
       </c>
       <c r="I20" t="s">
@@ -9090,15 +9161,15 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.340301513670994</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>152.28304144831063</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0783133801115203E-2</v>
       </c>
       <c r="I21" t="s">
@@ -9122,15 +9193,15 @@
         <v>3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.247100830078978</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>149.99147874212119</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.0823669433596589E-2</v>
       </c>
       <c r="I22" t="s">
@@ -9154,15 +9225,15 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.772399902343011</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.1414014138255149</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.0067793851497483E-3</v>
       </c>
       <c r="I23" t="s">
@@ -9171,130 +9242,130 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>518.19396972656205</v>
+        <v>236.70463562011699</v>
       </c>
       <c r="D24">
-        <v>629</v>
+        <v>271</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>110.80603027343795</v>
+        <f t="shared" si="3"/>
+        <v>34.295364379883011</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>12277.976344958048</v>
+        <f t="shared" si="4"/>
+        <v>1176.1720179489485</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
-        <v>0.17616221029163426</v>
+        <f t="shared" si="5"/>
+        <v>0.12655116007336906</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C25">
-        <v>492.33172607421801</v>
+        <v>371.91876220703102</v>
       </c>
       <c r="D25">
-        <v>609</v>
+        <v>340</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>116.66827392578199</v>
+        <f t="shared" si="3"/>
+        <v>31.918762207031023</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>13611.486140821302</v>
+        <f t="shared" si="4"/>
+        <v>1018.8073808289919</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
-        <v>0.19157352040358291</v>
+        <f t="shared" si="5"/>
+        <v>9.3878712373620651E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C26">
-        <v>510.29144287109301</v>
+        <v>431.91275024414</v>
       </c>
       <c r="D26">
-        <v>608</v>
+        <v>350</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>97.708557128906989</v>
+        <f t="shared" si="3"/>
+        <v>81.91275024414</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>9546.9621362128801</v>
+        <f t="shared" si="4"/>
+        <v>6709.6986525588572</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
-        <v>0.16070486369886017</v>
+        <f t="shared" si="5"/>
+        <v>0.23403642926897142</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C27">
-        <v>545.16369628906205</v>
+        <v>485.852447509765</v>
       </c>
       <c r="D27">
-        <v>589</v>
+        <v>357</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>43.836303710937955</v>
+        <f t="shared" si="3"/>
+        <v>128.852447509765</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>1921.6215230375926</v>
+        <f t="shared" si="4"/>
+        <v>16602.953229256746</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
-        <v>7.4424963855582268E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.36093122551754903</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -9314,15 +9385,15 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2955627441399997</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39.634110265403564</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.374577018371179E-2</v>
       </c>
       <c r="I28" t="s">
@@ -9331,34 +9402,34 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C29">
-        <v>607.308837890625</v>
+        <v>412.85357666015602</v>
       </c>
       <c r="D29">
-        <v>585</v>
+        <v>367</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>22.308837890625</v>
+        <f t="shared" si="3"/>
+        <v>45.853576660156023</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>497.6842480301857</v>
+        <f t="shared" si="4"/>
+        <v>2102.5504925288051</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
-        <v>3.8134765624999997E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.12494162577699189</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -9378,15 +9449,15 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3063354492189774</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7065123058861473</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.8647707219714418E-3</v>
       </c>
       <c r="I30" t="s">
@@ -9410,15 +9481,15 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.4975891113280113</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>72.20902070496038</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.7411577778477456E-2</v>
       </c>
       <c r="I31" t="s">
@@ -9427,34 +9498,34 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>511.82574462890602</v>
+        <v>405.803466796875</v>
       </c>
       <c r="D32">
-        <v>581</v>
+        <v>400</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>69.174255371093977</v>
+        <f t="shared" si="3"/>
+        <v>5.803466796875</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>4785.0776061453244</v>
+        <f t="shared" si="4"/>
+        <v>33.680226862430573</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>0.11906068050102234</v>
+        <f t="shared" si="5"/>
+        <v>1.45086669921875E-2</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -9474,15 +9545,15 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.43408203125</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>71.133739709854126</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.8397582596801346E-2</v>
       </c>
       <c r="I33" t="s">
@@ -9506,15 +9577,15 @@
         <v>3</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="3">ABS(C34-D34)</f>
+        <f t="shared" si="3"/>
         <v>5.7810668945309942</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="4">F34*F34</f>
+        <f t="shared" si="4"/>
         <v>33.420734439042235</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="5">F34/D34</f>
+        <f t="shared" si="5"/>
         <v>2.5355556554960502E-2</v>
       </c>
       <c r="I34" t="s">
@@ -9523,34 +9594,34 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>543.86407470703102</v>
+        <v>428.476318359375</v>
       </c>
       <c r="D35">
-        <v>545</v>
+        <v>406</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>1.1359252929689774</v>
+        <v>22.476318359375</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>1.290326271206657</v>
+        <v>505.18488699197769</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>2.084266592603628E-3</v>
+        <v>5.5360390047721676E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -9651,34 +9722,34 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>449.33059692382801</v>
+        <v>399.63916015625</v>
       </c>
       <c r="D39">
-        <v>526</v>
+        <v>408</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>76.669403076171989</v>
+        <f t="shared" ref="F39:F70" si="6">ABS(C39-D39)</f>
+        <v>8.36083984375</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
-        <v>5878.1973680565306</v>
+        <f t="shared" ref="G39:G70" si="7">F39*F39</f>
+        <v>69.903642892837524</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
-        <v>0.14575932143758932</v>
+        <f t="shared" ref="H39:H70" si="8">F39/D39</f>
+        <v>2.0492254518995098E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -9698,15 +9769,15 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.93966674804599393</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.88297359738333348</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.1915289947292486E-3</v>
       </c>
       <c r="I40" t="s">
@@ -9730,15 +9801,15 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.8335723876959946</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>46.697711577881137</v>
       </c>
       <c r="H41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4167861938479975E-2</v>
       </c>
       <c r="I41" t="s">
@@ -9762,15 +9833,15 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1661376953130116</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17.356703296308012</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5487500726070675E-2</v>
       </c>
       <c r="I42" t="s">
@@ -9779,34 +9850,34 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C43">
-        <v>546.01837158203102</v>
+        <v>507.33636474609301</v>
       </c>
       <c r="D43">
-        <v>524</v>
+        <v>410</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
-        <v>22.018371582031023</v>
+        <f t="shared" si="6"/>
+        <v>97.336364746093011</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
-        <v>484.80868712439133</v>
+        <f t="shared" si="7"/>
+        <v>9474.3679019844585</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
-        <v>4.2019793095479048E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.23740576767339758</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -9826,15 +9897,15 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13.192169189453011</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>174.03332792315331</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.2816341267296045E-2</v>
       </c>
       <c r="I44" t="s">
@@ -9858,15 +9929,15 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.769775390625</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>281.22536665201187</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0490500710227273E-2</v>
       </c>
       <c r="I45" t="s">
@@ -9890,15 +9961,15 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.3899536132810226</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>70.391321633007294</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5741001150621055E-2</v>
       </c>
       <c r="I46" t="s">
@@ -9922,15 +9993,15 @@
         <v>3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.290222167968977</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>372.11267128960174</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.7384151488311972E-2</v>
       </c>
       <c r="I47" t="s">
@@ -9954,15 +10025,15 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.202270507813012</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>538.34535671772949</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.2732432972302297E-2</v>
       </c>
       <c r="I48" t="s">
@@ -9986,15 +10057,15 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.7500610351560226</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>95.063690189267732</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8098158602755108E-2</v>
       </c>
       <c r="I49" t="s">
@@ -10018,15 +10089,15 @@
         <v>3</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.43948364257897765</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.19314587209448658</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0011016915238671E-3</v>
       </c>
       <c r="I50" t="s">
@@ -10050,15 +10121,15 @@
         <v>3</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0917053222649997</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.3752311551917265</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.1647044994197521E-3</v>
       </c>
       <c r="I51" t="s">
@@ -10082,15 +10153,15 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.4203491210939774</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>70.902279321108111</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6396078749510901E-2</v>
       </c>
       <c r="I52" t="s">
@@ -10099,34 +10170,34 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>609.385986328125</v>
+        <v>388.17132568359301</v>
       </c>
       <c r="D53">
-        <v>506</v>
+        <v>412</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
-        <v>103.385986328125</v>
+        <f t="shared" si="6"/>
+        <v>23.828674316406989</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
-        <v>10688.662169039249</v>
+        <f t="shared" si="7"/>
+        <v>567.80571967739411</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
-        <v>0.20432013108325098</v>
+        <f t="shared" si="8"/>
+        <v>5.7836588146618906E-2</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10146,15 +10217,15 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.930877685546022</v>
       </c>
       <c r="G54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>253.79286383182819</v>
       </c>
       <c r="H54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.8021187793665923E-2</v>
       </c>
       <c r="I54" t="s">
@@ -10163,66 +10234,66 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B55">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C55">
-        <v>445.44915771484301</v>
+        <v>483.02279663085898</v>
       </c>
       <c r="D55">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
-        <v>48.550842285156989</v>
+        <f t="shared" si="6"/>
+        <v>64.022796630858977</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
-        <v>2357.184286598188</v>
+        <f t="shared" si="7"/>
+        <v>4098.9184884363276</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
-        <v>9.8281057257402812E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.15279903730515268</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>520.96594238281205</v>
+        <v>467.32092285156199</v>
       </c>
       <c r="D56">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E56" t="s">
         <v>4</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
-        <v>29.965942382812045</v>
+        <f t="shared" si="6"/>
+        <v>8.6790771484380116</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
-        <v>897.95770289001121</v>
+        <f t="shared" si="7"/>
+        <v>75.326380148538888</v>
       </c>
       <c r="H56">
-        <f t="shared" si="5"/>
-        <v>6.1030432551552029E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.823335535386137E-2</v>
       </c>
       <c r="I56" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10242,15 +10313,15 @@
         <v>3</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32.648376464843977</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1065.9164857901781</v>
       </c>
       <c r="H57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.022827148437535E-2</v>
       </c>
       <c r="I57" t="s">
@@ -10274,15 +10345,15 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18.190399169921989</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>330.89062196109859</v>
       </c>
       <c r="H58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6600400744309834E-2</v>
       </c>
       <c r="I58" t="s">
@@ -10291,66 +10362,66 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C59">
-        <v>467.32092285156199</v>
+        <v>520.96594238281205</v>
       </c>
       <c r="D59">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
-        <v>8.6790771484380116</v>
+        <f t="shared" si="6"/>
+        <v>29.965942382812045</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
-        <v>75.326380148538888</v>
+        <f t="shared" si="7"/>
+        <v>897.95770289001121</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
-        <v>1.823335535386137E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.1030432551552029E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C60">
-        <v>483.02279663085898</v>
+        <v>445.44915771484301</v>
       </c>
       <c r="D60">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
-        <v>64.022796630858977</v>
+        <f t="shared" si="6"/>
+        <v>48.550842285156989</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
-        <v>4098.9184884363276</v>
+        <f t="shared" si="7"/>
+        <v>2357.184286598188</v>
       </c>
       <c r="H60">
-        <f t="shared" si="5"/>
-        <v>0.15279903730515268</v>
+        <f t="shared" si="8"/>
+        <v>9.8281057257402812E-2</v>
       </c>
       <c r="I60" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10370,15 +10441,15 @@
         <v>3</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37.411499023437955</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1399.6202591806991</v>
       </c>
       <c r="H61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.4170667278624277E-2</v>
       </c>
       <c r="I61" t="s">
@@ -10402,15 +10473,15 @@
         <v>3</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28.128784179687955</v>
       </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>791.22849942746336</v>
       </c>
       <c r="H62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.5663610681311612E-2</v>
       </c>
       <c r="I62" t="s">
@@ -10419,34 +10490,34 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>388.17132568359301</v>
+        <v>609.385986328125</v>
       </c>
       <c r="D63">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
-        <v>23.828674316406989</v>
+        <f t="shared" si="6"/>
+        <v>103.385986328125</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
-        <v>567.80571967739411</v>
+        <f t="shared" si="7"/>
+        <v>10688.662169039249</v>
       </c>
       <c r="H63">
-        <f t="shared" si="5"/>
-        <v>5.7836588146618906E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.20432013108325098</v>
       </c>
       <c r="I63" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10466,15 +10537,15 @@
         <v>3</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.0896606445320458</v>
       </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50.263288054626543</v>
       </c>
       <c r="H64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1509189358006568E-2</v>
       </c>
       <c r="I64" t="s">
@@ -10498,15 +10569,15 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.32763671875</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4178926944732666</v>
       </c>
       <c r="H65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.5864972553929122E-3</v>
       </c>
       <c r="I65" t="s">
@@ -10530,15 +10601,15 @@
         <v>3</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F101" si="6">ABS(C66-D66)</f>
+        <f t="shared" si="6"/>
         <v>37.554748535156023</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G97" si="7">F66*F66</f>
+        <f t="shared" si="7"/>
         <v>1410.3591375388035</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H101" si="8">F66/D66</f>
+        <f t="shared" si="8"/>
         <v>4.9091174555759509E-2</v>
       </c>
       <c r="I66" t="s">
@@ -10547,66 +10618,66 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B67">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>507.33636474609301</v>
+        <v>546.01837158203102</v>
       </c>
       <c r="D67">
-        <v>410</v>
+        <v>524</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
       </c>
       <c r="F67">
         <f t="shared" si="6"/>
-        <v>97.336364746093011</v>
+        <v>22.018371582031023</v>
       </c>
       <c r="G67">
         <f t="shared" si="7"/>
-        <v>9474.3679019844585</v>
+        <v>484.80868712439133</v>
       </c>
       <c r="H67">
         <f t="shared" si="8"/>
-        <v>0.23740576767339758</v>
+        <v>4.2019793095479048E-2</v>
       </c>
       <c r="I67" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B68">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C68">
-        <v>399.63916015625</v>
+        <v>449.33059692382801</v>
       </c>
       <c r="D68">
-        <v>408</v>
+        <v>526</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68">
         <f t="shared" si="6"/>
-        <v>8.36083984375</v>
+        <v>76.669403076171989</v>
       </c>
       <c r="G68">
         <f t="shared" si="7"/>
-        <v>69.903642892837524</v>
+        <v>5878.1973680565306</v>
       </c>
       <c r="H68">
         <f t="shared" si="8"/>
-        <v>2.0492254518995098E-2</v>
+        <v>0.14575932143758932</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10643,34 +10714,34 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <v>428.476318359375</v>
+        <v>543.86407470703102</v>
       </c>
       <c r="D70">
-        <v>406</v>
+        <v>545</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70">
         <f t="shared" si="6"/>
-        <v>22.476318359375</v>
+        <v>1.1359252929689774</v>
       </c>
       <c r="G70">
         <f t="shared" si="7"/>
-        <v>505.18488699197769</v>
+        <v>1.290326271206657</v>
       </c>
       <c r="H70">
         <f t="shared" si="8"/>
-        <v>5.5360390047721676E-2</v>
+        <v>2.084266592603628E-3</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10690,15 +10761,15 @@
         <v>3</v>
       </c>
       <c r="F71">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F71:F100" si="9">ABS(C71-D71)</f>
         <v>27.6357421875</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G71:G102" si="10">F71*F71</f>
         <v>763.73424625396729</v>
       </c>
       <c r="H71">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H71:H100" si="11">F71/D71</f>
         <v>5.0522380598720294E-2</v>
       </c>
       <c r="I71" t="s">
@@ -10707,34 +10778,34 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B72">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>405.803466796875</v>
+        <v>511.82574462890602</v>
       </c>
       <c r="D72">
-        <v>400</v>
+        <v>581</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
       </c>
       <c r="F72">
-        <f t="shared" si="6"/>
-        <v>5.803466796875</v>
+        <f t="shared" si="9"/>
+        <v>69.174255371093977</v>
       </c>
       <c r="G72">
-        <f t="shared" si="7"/>
-        <v>33.680226862430573</v>
+        <f t="shared" si="10"/>
+        <v>4785.0776061453244</v>
       </c>
       <c r="H72">
-        <f t="shared" si="8"/>
-        <v>1.45086669921875E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.11906068050102234</v>
       </c>
       <c r="I72" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10754,15 +10825,15 @@
         <v>3</v>
       </c>
       <c r="F73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.0214233398439774</v>
       </c>
       <c r="G73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>64.343232396993713</v>
       </c>
       <c r="H73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4691251538175782E-2</v>
       </c>
       <c r="I73" t="s">
@@ -10786,15 +10857,15 @@
         <v>3</v>
       </c>
       <c r="F74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.4793701171879547</v>
       </c>
       <c r="G74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>55.940977349884157</v>
       </c>
       <c r="H74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3121701959978868E-2</v>
       </c>
       <c r="I74" t="s">
@@ -10818,15 +10889,15 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.998046875</v>
       </c>
       <c r="G75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>440.91797256469727</v>
       </c>
       <c r="H75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1912269211576848E-2</v>
       </c>
       <c r="I75" t="s">
@@ -10850,15 +10921,15 @@
         <v>3</v>
       </c>
       <c r="F76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.816864013671989</v>
       </c>
       <c r="G76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>164.27200314496005</v>
       </c>
       <c r="H76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.6210355856179937E-2</v>
       </c>
       <c r="I76" t="s">
@@ -10882,15 +10953,15 @@
         <v>3</v>
       </c>
       <c r="F77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.32373046875</v>
       </c>
       <c r="G77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.3997232913970947</v>
       </c>
       <c r="H77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.3665830687066977E-3</v>
       </c>
       <c r="I77" t="s">
@@ -10899,34 +10970,34 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C78">
-        <v>412.85357666015602</v>
+        <v>607.308837890625</v>
       </c>
       <c r="D78">
-        <v>367</v>
+        <v>585</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
       </c>
       <c r="F78">
-        <f t="shared" si="6"/>
-        <v>45.853576660156023</v>
+        <f t="shared" si="9"/>
+        <v>22.308837890625</v>
       </c>
       <c r="G78">
-        <f t="shared" si="7"/>
-        <v>2102.5504925288051</v>
+        <f t="shared" si="10"/>
+        <v>497.6842480301857</v>
       </c>
       <c r="H78">
-        <f t="shared" si="8"/>
-        <v>0.12494162577699189</v>
+        <f t="shared" si="11"/>
+        <v>3.8134765624999997E-2</v>
       </c>
       <c r="I78" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -10946,15 +11017,15 @@
         <v>3</v>
       </c>
       <c r="F79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1649780273439774</v>
       </c>
       <c r="G79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.6871298588822192</v>
       </c>
       <c r="H79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8386135236595344E-3</v>
       </c>
       <c r="I79" t="s">
@@ -10978,15 +11049,15 @@
         <v>3</v>
       </c>
       <c r="F80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.782409667968977</v>
       </c>
       <c r="G80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>163.3899969197868</v>
       </c>
       <c r="H80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.3583781675219514E-2</v>
       </c>
       <c r="I80" t="s">
@@ -10995,34 +11066,34 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C81">
-        <v>485.852447509765</v>
+        <v>545.16369628906205</v>
       </c>
       <c r="D81">
-        <v>357</v>
+        <v>589</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
       </c>
       <c r="F81">
-        <f t="shared" si="6"/>
-        <v>128.852447509765</v>
+        <f t="shared" si="9"/>
+        <v>43.836303710937955</v>
       </c>
       <c r="G81">
-        <f t="shared" si="7"/>
-        <v>16602.953229256746</v>
+        <f t="shared" si="10"/>
+        <v>1921.6215230375926</v>
       </c>
       <c r="H81">
-        <f t="shared" si="8"/>
-        <v>0.36093122551754903</v>
+        <f t="shared" si="11"/>
+        <v>7.4424963855582268E-2</v>
       </c>
       <c r="I81" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11042,15 +11113,15 @@
         <v>3</v>
       </c>
       <c r="F82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.8624267578120453</v>
       </c>
       <c r="G82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>23.643193975086557</v>
       </c>
       <c r="H82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.7769436061589257E-3</v>
       </c>
       <c r="I82" t="s">
@@ -11059,34 +11130,34 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B83">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C83">
-        <v>431.91275024414</v>
+        <v>510.29144287109301</v>
       </c>
       <c r="D83">
-        <v>350</v>
+        <v>608</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83">
-        <f t="shared" si="6"/>
-        <v>81.91275024414</v>
+        <f t="shared" si="9"/>
+        <v>97.708557128906989</v>
       </c>
       <c r="G83">
-        <f t="shared" si="7"/>
-        <v>6709.6986525588572</v>
+        <f t="shared" si="10"/>
+        <v>9546.9621362128801</v>
       </c>
       <c r="H83">
-        <f t="shared" si="8"/>
-        <v>0.23403642926897142</v>
+        <f t="shared" si="11"/>
+        <v>0.16070486369886017</v>
       </c>
       <c r="I83" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11106,15 +11177,15 @@
         <v>3</v>
       </c>
       <c r="F84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.0089721679689774</v>
       </c>
       <c r="G84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36.107746515425795</v>
       </c>
       <c r="H84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.7236146117853179E-3</v>
       </c>
       <c r="I84" t="s">
@@ -11138,15 +11209,15 @@
         <v>3</v>
       </c>
       <c r="F85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17.376281738281023</v>
       </c>
       <c r="G85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>301.93516704811856</v>
       </c>
       <c r="H85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0418662442163366E-2</v>
       </c>
       <c r="I85" t="s">
@@ -11170,15 +11241,15 @@
         <v>3</v>
       </c>
       <c r="F86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.3466796875</v>
       </c>
       <c r="G86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.200264930725098</v>
       </c>
       <c r="H86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.6857705809471364E-3</v>
       </c>
       <c r="I86" t="s">
@@ -11187,34 +11258,34 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B87">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C87">
-        <v>371.91876220703102</v>
+        <v>492.33172607421801</v>
       </c>
       <c r="D87">
-        <v>340</v>
+        <v>609</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
       </c>
       <c r="F87">
-        <f t="shared" si="6"/>
-        <v>31.918762207031023</v>
+        <f t="shared" si="9"/>
+        <v>116.66827392578199</v>
       </c>
       <c r="G87">
-        <f t="shared" si="7"/>
-        <v>1018.8073808289919</v>
+        <f t="shared" si="10"/>
+        <v>13611.486140821302</v>
       </c>
       <c r="H87">
-        <f t="shared" si="8"/>
-        <v>9.3878712373620651E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.19157352040358291</v>
       </c>
       <c r="I87" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11234,15 +11305,15 @@
         <v>3</v>
       </c>
       <c r="F88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2877807617179542</v>
       </c>
       <c r="G88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27.960625383994508</v>
       </c>
       <c r="H88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.8883972847638688E-3</v>
       </c>
       <c r="I88" t="s">
@@ -11266,15 +11337,15 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.6083984375</v>
       </c>
       <c r="G89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>43.670929908752441</v>
       </c>
       <c r="H89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.3869295987215901E-3</v>
       </c>
       <c r="I89" t="s">
@@ -11298,15 +11369,15 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.032165527342954</v>
       </c>
       <c r="G90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1227.2526215351561</v>
       </c>
       <c r="H90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.3007491955652792E-2</v>
       </c>
       <c r="I90" t="s">
@@ -11315,66 +11386,66 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B91">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C91">
-        <v>236.70463562011699</v>
+        <v>518.19396972656205</v>
       </c>
       <c r="D91">
-        <v>271</v>
+        <v>629</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
       </c>
       <c r="F91">
-        <f t="shared" si="6"/>
-        <v>34.295364379883011</v>
+        <f t="shared" si="9"/>
+        <v>110.80603027343795</v>
       </c>
       <c r="G91">
-        <f t="shared" si="7"/>
-        <v>1176.1720179489485</v>
+        <f t="shared" si="10"/>
+        <v>12277.976344958048</v>
       </c>
       <c r="H91">
-        <f t="shared" si="8"/>
-        <v>0.12655116007336906</v>
+        <f t="shared" si="11"/>
+        <v>0.17616221029163426</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B92">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>335.71325683593699</v>
+        <v>658.98284912109295</v>
       </c>
       <c r="D92">
-        <v>244</v>
+        <v>720</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
       <c r="F92">
-        <f t="shared" si="6"/>
-        <v>91.713256835936988</v>
+        <f t="shared" si="9"/>
+        <v>61.017150878907046</v>
       </c>
       <c r="G92">
-        <f t="shared" si="7"/>
-        <v>8411.321479454542</v>
+        <f t="shared" si="10"/>
+        <v>3723.0927013793071</v>
       </c>
       <c r="H92">
-        <f t="shared" si="8"/>
-        <v>0.37587400342597127</v>
+        <f t="shared" si="11"/>
+        <v>8.4746042887370893E-2</v>
       </c>
       <c r="I92" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11394,15 +11465,15 @@
         <v>3</v>
       </c>
       <c r="F93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.3192138671880116</v>
       </c>
       <c r="G93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>39.932463899261265</v>
       </c>
       <c r="H93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2613201331712598E-2</v>
       </c>
       <c r="I93" t="s">
@@ -11411,34 +11482,34 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C94">
-        <v>326.94281005859301</v>
+        <v>797.75988769531205</v>
       </c>
       <c r="D94">
-        <v>244</v>
+        <v>726</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
       </c>
       <c r="F94">
-        <f t="shared" si="6"/>
-        <v>82.942810058593011</v>
+        <f t="shared" si="9"/>
+        <v>71.759887695312045</v>
       </c>
       <c r="G94">
-        <f t="shared" si="7"/>
-        <v>6879.5097404158378</v>
+        <f t="shared" si="10"/>
+        <v>5149.4814820437969</v>
       </c>
       <c r="H94">
-        <f t="shared" si="8"/>
-        <v>0.33992954942046316</v>
+        <f t="shared" si="11"/>
+        <v>9.8842820516958738E-2</v>
       </c>
       <c r="I94" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11458,15 +11529,15 @@
         <v>3</v>
       </c>
       <c r="F95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.038513183593977</v>
       </c>
       <c r="G95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>362.46498424188167</v>
       </c>
       <c r="H95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.1735090172809722E-2</v>
       </c>
       <c r="I95" t="s">
@@ -11475,34 +11546,34 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>315.26947021484301</v>
+        <v>694.69830322265602</v>
       </c>
       <c r="D96">
-        <v>201</v>
+        <v>729</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
       </c>
       <c r="F96">
-        <f t="shared" si="6"/>
-        <v>114.26947021484301</v>
+        <f t="shared" si="9"/>
+        <v>34.301696777343977</v>
       </c>
       <c r="G96">
-        <f t="shared" si="7"/>
-        <v>13057.511823180894</v>
+        <f t="shared" si="10"/>
+        <v>1176.6064018048503</v>
       </c>
       <c r="H96">
-        <f t="shared" si="8"/>
-        <v>0.56850482693951743</v>
+        <f t="shared" si="11"/>
+        <v>4.7053081999100105E-2</v>
       </c>
       <c r="I96" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11522,15 +11593,15 @@
         <v>3</v>
       </c>
       <c r="F97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.345947265625</v>
       </c>
       <c r="G97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>861.18462091684341</v>
       </c>
       <c r="H97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.6507047964540409E-2</v>
       </c>
       <c r="I97" t="s">
@@ -11539,34 +11610,34 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B98">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C98">
-        <v>251.262924194335</v>
+        <v>677.82366943359295</v>
       </c>
       <c r="D98">
-        <v>188</v>
+        <v>752</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
       </c>
       <c r="F98">
-        <f t="shared" si="6"/>
-        <v>63.262924194335</v>
+        <f t="shared" si="9"/>
+        <v>74.176330566407046</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:G129" si="9">F98*F98</f>
-        <v>4002.1975776181766</v>
+        <f t="shared" si="10"/>
+        <v>5502.1280162968924</v>
       </c>
       <c r="H98">
-        <f t="shared" si="8"/>
-        <v>0.33650491592731385</v>
+        <f t="shared" si="11"/>
+        <v>9.8638737455328515E-2</v>
       </c>
       <c r="I98" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11586,15 +11657,15 @@
         <v>3</v>
       </c>
       <c r="F99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.430419921875</v>
       </c>
       <c r="G99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>987.87129646539688</v>
       </c>
       <c r="H99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1247270238681105E-2</v>
       </c>
       <c r="I99" t="s">
@@ -11603,34 +11674,34 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B100">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C100">
-        <v>153.54820251464801</v>
+        <v>878.97961425781205</v>
       </c>
       <c r="D100">
-        <v>113</v>
+        <v>915</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
       </c>
       <c r="F100">
-        <f t="shared" si="6"/>
-        <v>40.548202514648011</v>
+        <f t="shared" si="9"/>
+        <v>36.020385742187955</v>
       </c>
       <c r="G100">
-        <f t="shared" si="9"/>
-        <v>1644.1567271689073</v>
+        <f t="shared" si="10"/>
+        <v>1297.4681890160173</v>
       </c>
       <c r="H100">
-        <f t="shared" si="8"/>
-        <v>0.35883365057210631</v>
+        <f t="shared" si="11"/>
+        <v>3.9366541794740931E-2</v>
       </c>
       <c r="I100" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -11650,15 +11721,15 @@
         <v>3</v>
       </c>
       <c r="F101">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F101" si="12">ABS(C101-D101)</f>
         <v>14.85791015625</v>
       </c>
       <c r="G101">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G101" si="13">F101*F101</f>
         <v>220.7574942111969</v>
       </c>
       <c r="H101">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H101" si="14">F101/D101</f>
         <v>1.8549201193820225E-2</v>
       </c>
       <c r="I101" t="s">
@@ -11672,8 +11743,8 @@
         <filter val="False"/>
       </filters>
     </filterColumn>
-    <sortState ref="A7:I100">
-      <sortCondition descending="1" ref="D1:D101"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I100">
+      <sortCondition ref="D1:D101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11682,6 +11753,423 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C364E72-F3AC-4899-AD02-B3880DDBBB44}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1">
+        <f>CORREL(A2:A35,B2:B35)</f>
+        <v>-5.1358568362282801E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>40.548202514648011</v>
+      </c>
+      <c r="C2">
+        <v>0.35883365057210631</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2">
+        <f>CORREL(A2:A35,C2:C35)</f>
+        <v>-0.6101851195776038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>188</v>
+      </c>
+      <c r="B3">
+        <v>63.262924194335</v>
+      </c>
+      <c r="C3">
+        <v>0.33650491592731385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4">
+        <v>114.26947021484301</v>
+      </c>
+      <c r="C4">
+        <v>0.56850482693951743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>244</v>
+      </c>
+      <c r="B5">
+        <v>82.942810058593011</v>
+      </c>
+      <c r="C5">
+        <v>0.33992954942046316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>244</v>
+      </c>
+      <c r="B6">
+        <v>91.713256835936988</v>
+      </c>
+      <c r="C6">
+        <v>0.37587400342597127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>271</v>
+      </c>
+      <c r="B7">
+        <v>34.295364379883011</v>
+      </c>
+      <c r="C7">
+        <v>0.12655116007336906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>340</v>
+      </c>
+      <c r="B8">
+        <v>31.918762207031023</v>
+      </c>
+      <c r="C8">
+        <v>9.3878712373620651E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>81.91275024414</v>
+      </c>
+      <c r="C9">
+        <v>0.23403642926897142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>357</v>
+      </c>
+      <c r="B10">
+        <v>128.852447509765</v>
+      </c>
+      <c r="C10">
+        <v>0.36093122551754903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>367</v>
+      </c>
+      <c r="B11">
+        <v>45.853576660156023</v>
+      </c>
+      <c r="C11">
+        <v>0.12494162577699189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>5.803466796875</v>
+      </c>
+      <c r="C12">
+        <v>1.45086669921875E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>406</v>
+      </c>
+      <c r="B13">
+        <v>22.476318359375</v>
+      </c>
+      <c r="C13">
+        <v>5.5360390047721676E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>408</v>
+      </c>
+      <c r="B14">
+        <v>8.36083984375</v>
+      </c>
+      <c r="C14">
+        <v>2.0492254518995098E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>410</v>
+      </c>
+      <c r="B15">
+        <v>97.336364746093011</v>
+      </c>
+      <c r="C15">
+        <v>0.23740576767339758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>412</v>
+      </c>
+      <c r="B16">
+        <v>23.828674316406989</v>
+      </c>
+      <c r="C16">
+        <v>5.7836588146618906E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>419</v>
+      </c>
+      <c r="B17">
+        <v>64.022796630858977</v>
+      </c>
+      <c r="C17">
+        <v>0.15279903730515268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>476</v>
+      </c>
+      <c r="B18">
+        <v>8.6790771484380116</v>
+      </c>
+      <c r="C18">
+        <v>1.823335535386137E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>491</v>
+      </c>
+      <c r="B19">
+        <v>29.965942382812045</v>
+      </c>
+      <c r="C19">
+        <v>6.1030432551552029E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>494</v>
+      </c>
+      <c r="B20">
+        <v>48.550842285156989</v>
+      </c>
+      <c r="C20">
+        <v>9.8281057257402812E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>506</v>
+      </c>
+      <c r="B21">
+        <v>103.385986328125</v>
+      </c>
+      <c r="C21">
+        <v>0.20432013108325098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>524</v>
+      </c>
+      <c r="B22">
+        <v>22.018371582031023</v>
+      </c>
+      <c r="C22">
+        <v>4.2019793095479048E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>526</v>
+      </c>
+      <c r="B23">
+        <v>76.669403076171989</v>
+      </c>
+      <c r="C23">
+        <v>0.14575932143758932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>545</v>
+      </c>
+      <c r="B24">
+        <v>1.1359252929689774</v>
+      </c>
+      <c r="C24">
+        <v>2.084266592603628E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>581</v>
+      </c>
+      <c r="B25">
+        <v>69.174255371093977</v>
+      </c>
+      <c r="C25">
+        <v>0.11906068050102234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>585</v>
+      </c>
+      <c r="B26">
+        <v>22.308837890625</v>
+      </c>
+      <c r="C26">
+        <v>3.8134765624999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>589</v>
+      </c>
+      <c r="B27">
+        <v>43.836303710937955</v>
+      </c>
+      <c r="C27">
+        <v>7.4424963855582268E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>608</v>
+      </c>
+      <c r="B28">
+        <v>97.708557128906989</v>
+      </c>
+      <c r="C28">
+        <v>0.16070486369886017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>609</v>
+      </c>
+      <c r="B29">
+        <v>116.66827392578199</v>
+      </c>
+      <c r="C29">
+        <v>0.19157352040358291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>629</v>
+      </c>
+      <c r="B30">
+        <v>110.80603027343795</v>
+      </c>
+      <c r="C30">
+        <v>0.17616221029163426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>720</v>
+      </c>
+      <c r="B31">
+        <v>61.017150878907046</v>
+      </c>
+      <c r="C31">
+        <v>8.4746042887370893E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>726</v>
+      </c>
+      <c r="B32">
+        <v>71.759887695312045</v>
+      </c>
+      <c r="C32">
+        <v>9.8842820516958738E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>729</v>
+      </c>
+      <c r="B33">
+        <v>34.301696777343977</v>
+      </c>
+      <c r="C33">
+        <v>4.7053081999100105E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>752</v>
+      </c>
+      <c r="B34">
+        <v>74.176330566407046</v>
+      </c>
+      <c r="C34">
+        <v>9.8638737455328515E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>915</v>
+      </c>
+      <c r="B35">
+        <v>36.020385742187955</v>
+      </c>
+      <c r="C35">
+        <v>3.9366541794740931E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085BEBE3-41FF-47CB-AECD-298382C30E80}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -14016,7 +14504,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{D87CAB7D-7E87-4C41-902D-69DBEC1B5926}">
-    <sortState ref="A2:G101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -14024,7 +14512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071AE6AE-F348-481A-AB7F-46A51F390912}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -16660,7 +17148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF54514-79EE-4530-B60A-E3F2E5C44E36}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -18995,7 +19483,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{E3D5E7A3-63C6-43CA-9C77-09B051BC7A50}">
-    <sortState ref="A2:G101">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -19003,7 +19491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C43F930-C379-4792-8FD8-503A700A331E}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -21639,7 +22127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07B171-4A6B-4B4D-B1EC-2986CEA2FA36}">
   <dimension ref="A1:G101"/>
   <sheetViews>
